--- a/Step7.xlsx
+++ b/Step7.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C73D093-18EB-4EA4-88A7-BCACBA4F4F8D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D02BDEC-4199-4262-88A5-D408BBAC4204}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Step7.xlsx
+++ b/Step7.xlsx
@@ -3,14 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D02BDEC-4199-4262-88A5-D408BBAC4204}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="6_{BE2E808F-8671-42C8-AAB7-87DC77CE3D10}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="NHPP for &quot;&gt; 60KMPH&quot;" sheetId="2" r:id="rId2"/>
-    <sheet name="NHPP for &quot;&gt; 70KMPH&quot;" sheetId="3" r:id="rId3"/>
+    <sheet name="NHPP for &quot;&gt; 60KMPH&quot;" sheetId="2" r:id="rId1"/>
+    <sheet name="NHPP for &quot;&gt; 70KMPH&quot;" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -369,18 +368,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1CC3E2-4157-4405-89A6-3E58DB8D7BDB}">
   <dimension ref="A1:J832"/>
   <sheetViews>
@@ -27030,7 +27017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE6222A-7292-4E29-BCDF-1B258CF54AEF}">
   <dimension ref="A1:J500"/>
   <sheetViews>
